--- a/data/merged-entities.xlsx
+++ b/data/merged-entities.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2058"/>
+  <dimension ref="A1:F2057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Trix; Beatrix Gutekunst</t>
+          <t>Trix;Beatrix Gutekunst</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>Dalcroze...; Dalcroze; Dalcroze ja doppelt auf die Musik</t>
+          <t>Dalcroze...;Dalcroze;Dalcroze ja doppelt auf die Musik</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -11534,16 +11534,6 @@
           <t>LOC</t>
         </is>
       </c>
-      <c r="D895" t="inlineStr">
-        <is>
-          <t>http://www.wikidata.org/entity/Q365</t>
-        </is>
-      </c>
-      <c r="E895" t="inlineStr">
-        <is>
-          <t>http://data.performing-arts.ch/p/5860ce58-a53f-46f7-b275-3b9b8a95670f</t>
-        </is>
-      </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
@@ -11683,9 +11673,29 @@
           <t>Laban</t>
         </is>
       </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>Rudolf von Laban,Also Laban,Rudolf Laban,Laban-Brief,Laban-Frauen,Laban-Leut;Laban-Schüler,Laban-Spektakel,Tänzerinnen,Laban-Archiv</t>
+        </is>
+      </c>
       <c r="C907" t="inlineStr">
         <is>
           <t>PER</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>http://www.wikidata.org/entity/Q213712</t>
+        </is>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>http://data.performing-arts.ch/a/9dd84202-8274-4fa3-96a1-358cdea7ed5a</t>
+        </is>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>https://media.performing-arts.ch/iiif/image/1027-5-10-89/full/max/0/color.jpg</t>
         </is>
       </c>
     </row>
@@ -11745,7 +11755,7 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>LOC</t>
+          <t>ORG</t>
         </is>
       </c>
     </row>
@@ -12346,6 +12356,21 @@
           <t>PER</t>
         </is>
       </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>http://www.wikidata.org/entity/Q3242452</t>
+        </is>
+      </c>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>http://data.performing-arts.ch/a/db32df54-78cb-4731-99a5-07e9a1c5e214</t>
+        </is>
+      </c>
+      <c r="F961" t="inlineStr">
+        <is>
+          <t>https://upload.wikimedia.org/wikipedia/commons/3/31/Youth_Leaders_at_Impington_College-_Education_and_Training_in_Cambridgeshire%2C_England%2C_UK%2C_April_1944_D19444.jpg?uselang=de</t>
+        </is>
+      </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
@@ -12488,6 +12513,16 @@
           <t>LOC</t>
         </is>
       </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>http://www.wikidata.org/entity/Q4191</t>
+        </is>
+      </c>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>http://data.performing-arts.ch/p/be455311-634d-459e-aebf-842898122418</t>
+        </is>
+      </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
@@ -13023,16 +13058,6 @@
           <t>PER</t>
         </is>
       </c>
-      <c r="D1012" t="inlineStr">
-        <is>
-          <t>http://www.wikidata.org/entity/Q94743727</t>
-        </is>
-      </c>
-      <c r="E1012" t="inlineStr">
-        <is>
-          <t>http://data.performing-arts.ch/a/48f38825-dfb7-4c36-9c4f-a541abd2b860</t>
-        </is>
-      </c>
     </row>
     <row r="1013">
       <c r="A1013" t="inlineStr">
@@ -13045,6 +13070,16 @@
           <t>PER</t>
         </is>
       </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>http://www.wikidata.org/entity/Q240736</t>
+        </is>
+      </c>
+      <c r="F1013" t="inlineStr">
+        <is>
+          <t>https://upload.wikimedia.org/wikipedia/commons/4/4b/Ballet_Goes_To_the_Factory-_Dance_and_Entertainment_Organised_by_the_Council_For_the_Encouragement_of_Music_and_the_Arts%2C_England%2C_1943_D14039.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" t="inlineStr">
@@ -13266,9 +13301,29 @@
           <t>Mary Wigman</t>
         </is>
       </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>Wigman</t>
+        </is>
+      </c>
       <c r="C1031" t="inlineStr">
         <is>
           <t>PER</t>
+        </is>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>http://www.wikidata.org/entity/Q77127</t>
+        </is>
+      </c>
+      <c r="E1031" t="inlineStr">
+        <is>
+          <t>http://data.performing-arts.ch/a/83fa286b-fb96-4cce-b3f8-7dcba18eaea0</t>
+        </is>
+      </c>
+      <c r="F1031" t="inlineStr">
+        <is>
+          <t>https://upload.wikimedia.org/wikipedia/commons/3/3a/Mary_Wigman_by_Hugo_Erfurth_1926.jpg</t>
         </is>
       </c>
     </row>
@@ -14630,17 +14685,7 @@
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>PER</t>
-        </is>
-      </c>
-      <c r="D1142" t="inlineStr">
-        <is>
-          <t>http://www.wikidata.org/entity/Q246321</t>
-        </is>
-      </c>
-      <c r="E1142" t="inlineStr">
-        <is>
-          <t>http://data.performing-arts.ch/a/ec58665f-e305-4e1d-8082-c16cafe3ed63</t>
+          <t>MISC;PER</t>
         </is>
       </c>
     </row>
@@ -14736,17 +14781,7 @@
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>PER</t>
-        </is>
-      </c>
-      <c r="D1150" t="inlineStr">
-        <is>
-          <t>http://www.wikidata.org/entity/Q1725437</t>
-        </is>
-      </c>
-      <c r="E1150" t="inlineStr">
-        <is>
-          <t>http://data.performing-arts.ch/a/1edcd880-36e3-423a-83b5-5fb5d49c1ace</t>
+          <t>LOC</t>
         </is>
       </c>
     </row>
@@ -15049,16 +15084,6 @@
           <t>PER</t>
         </is>
       </c>
-      <c r="D1175" t="inlineStr">
-        <is>
-          <t>http://www.wikidata.org/entity/Q84217</t>
-        </is>
-      </c>
-      <c r="E1175" t="inlineStr">
-        <is>
-          <t>http://data.performing-arts.ch/a/8258784d-3b9f-4ce5-a638-f08a634106ba</t>
-        </is>
-      </c>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
@@ -15335,6 +15360,11 @@
           <t>LOC</t>
         </is>
       </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>http://www.wikidata.org/entity/Q670406</t>
+        </is>
+      </c>
     </row>
     <row r="1199">
       <c r="A1199" t="inlineStr">
@@ -15791,6 +15821,11 @@
           <t>ORG</t>
         </is>
       </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>http://www.wikidata.org/entity/Q283339</t>
+        </is>
+      </c>
     </row>
     <row r="1237">
       <c r="A1237" t="inlineStr">
@@ -16113,16 +16148,6 @@
           <t>LOC</t>
         </is>
       </c>
-      <c r="D1262" t="inlineStr">
-        <is>
-          <t>http://www.wikidata.org/entity/Q656</t>
-        </is>
-      </c>
-      <c r="E1262" t="inlineStr">
-        <is>
-          <t>http://data.performing-arts.ch/p/e454fad4-9156-4934-8eb6-d10a35258ed2</t>
-        </is>
-      </c>
     </row>
     <row r="1263">
       <c r="A1263" t="inlineStr">
@@ -16291,21 +16316,6 @@
           <t>PER</t>
         </is>
       </c>
-      <c r="D1276" t="inlineStr">
-        <is>
-          <t>http://www.wikidata.org/entity/Q155538</t>
-        </is>
-      </c>
-      <c r="E1276" t="inlineStr">
-        <is>
-          <t>http://data.performing-arts.ch/a/1e971692-2469-43aa-a219-30771262d139</t>
-        </is>
-      </c>
-      <c r="F1276" t="inlineStr">
-        <is>
-          <t>https://upload.wikimedia.org/wikipedia/commons/0/02/Pina_Bausch.jpg</t>
-        </is>
-      </c>
     </row>
     <row r="1277">
       <c r="A1277" t="inlineStr">
@@ -17719,16 +17729,6 @@
           <t>PER</t>
         </is>
       </c>
-      <c r="D1390" t="inlineStr">
-        <is>
-          <t>http://www.wikidata.org/entity/Q979906</t>
-        </is>
-      </c>
-      <c r="E1390" t="inlineStr">
-        <is>
-          <t>http://data.performing-arts.ch/a/51231fcb-6da9-4337-816b-3f4ca8ef09d2</t>
-        </is>
-      </c>
     </row>
     <row r="1391">
       <c r="A1391" t="inlineStr">
@@ -17844,29 +17844,9 @@
           <t>Rudolf von Laban</t>
         </is>
       </c>
-      <c r="B1400" t="inlineStr">
-        <is>
-          <t>Laban; Rudolf Laban</t>
-        </is>
-      </c>
       <c r="C1400" t="inlineStr">
         <is>
           <t>PER</t>
-        </is>
-      </c>
-      <c r="D1400" t="inlineStr">
-        <is>
-          <t>http://www.wikidata.org/entity/Q213712</t>
-        </is>
-      </c>
-      <c r="E1400" t="inlineStr">
-        <is>
-          <t>http://data.performing-arts.ch/a/9dd84202-8274-4fa3-96a1-358cdea7ed5a</t>
-        </is>
-      </c>
-      <c r="F1400" t="inlineStr">
-        <is>
-          <t>https://media.performing-arts.ch/iiif/image/1027-5-10-89/full/max/0/color.jpg</t>
         </is>
       </c>
     </row>
@@ -18058,12 +18038,7 @@
       </c>
       <c r="C1416" t="inlineStr">
         <is>
-          <t>ORG</t>
-        </is>
-      </c>
-      <c r="D1416" t="inlineStr">
-        <is>
-          <t>http://www.wikidata.org/entity/Q50920401</t>
+          <t>LOC;MISC;ORG</t>
         </is>
       </c>
     </row>
@@ -18219,7 +18194,17 @@
       </c>
       <c r="C1429" t="inlineStr">
         <is>
-          <t>LOC;PER</t>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="D1429" t="inlineStr">
+        <is>
+          <t>http://www.wikidata.org/entity/Q2581909</t>
+        </is>
+      </c>
+      <c r="E1429" t="inlineStr">
+        <is>
+          <t>http://data.performing-arts.ch/a/2bb410f5-6067-4f3d-be13-5f71d6d96a54</t>
         </is>
       </c>
     </row>
@@ -18866,7 +18851,7 @@
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Schweizerischen Bund; SBTG; Schweizerische Bund für Tanz; Bund für Tanz und Gymnastik...; Schweizerische Verband für Tanz und Gymnastik</t>
+          <t>Schweizerischen Bund; SBTG; Schweizerische Bund für Tanz; Bund für Tanz und Gymnastik...;Schweizerische Verband für Tanz und Gymnastik</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
@@ -19243,7 +19228,7 @@
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>Sigurd; Leeder</t>
+          <t>Sigurd;Leeder</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
@@ -25939,7 +25924,6 @@
         </is>
       </c>
     </row>
-    <row r="2058"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/merged-entities.xlsx
+++ b/data/merged-entities.xlsx
@@ -11534,6 +11534,16 @@
           <t>LOC</t>
         </is>
       </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>http://www.wikidata.org/entity/Q365</t>
+        </is>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>http://data.performing-arts.ch/p/5860ce58-a53f-46f7-b275-3b9b8a95670f</t>
+        </is>
+      </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
@@ -11673,29 +11683,9 @@
           <t>Laban</t>
         </is>
       </c>
-      <c r="B907" t="inlineStr">
-        <is>
-          <t>Rudolf von Laban,Also Laban,Rudolf Laban,Laban-Brief,Laban-Frauen,Laban-Leut;Laban-Schüler,Laban-Spektakel,Tänzerinnen,Laban-Archiv</t>
-        </is>
-      </c>
       <c r="C907" t="inlineStr">
         <is>
           <t>PER</t>
-        </is>
-      </c>
-      <c r="D907" t="inlineStr">
-        <is>
-          <t>http://www.wikidata.org/entity/Q213712</t>
-        </is>
-      </c>
-      <c r="E907" t="inlineStr">
-        <is>
-          <t>http://data.performing-arts.ch/a/9dd84202-8274-4fa3-96a1-358cdea7ed5a</t>
-        </is>
-      </c>
-      <c r="F907" t="inlineStr">
-        <is>
-          <t>https://media.performing-arts.ch/iiif/image/1027-5-10-89/full/max/0/color.jpg</t>
         </is>
       </c>
     </row>
@@ -11755,7 +11745,7 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>ORG</t>
+          <t>LOC</t>
         </is>
       </c>
     </row>
@@ -12356,21 +12346,6 @@
           <t>PER</t>
         </is>
       </c>
-      <c r="D961" t="inlineStr">
-        <is>
-          <t>http://www.wikidata.org/entity/Q3242452</t>
-        </is>
-      </c>
-      <c r="E961" t="inlineStr">
-        <is>
-          <t>http://data.performing-arts.ch/a/db32df54-78cb-4731-99a5-07e9a1c5e214</t>
-        </is>
-      </c>
-      <c r="F961" t="inlineStr">
-        <is>
-          <t>https://upload.wikimedia.org/wikipedia/commons/3/31/Youth_Leaders_at_Impington_College-_Education_and_Training_in_Cambridgeshire%2C_England%2C_UK%2C_April_1944_D19444.jpg?uselang=de</t>
-        </is>
-      </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
@@ -12513,16 +12488,6 @@
           <t>LOC</t>
         </is>
       </c>
-      <c r="D972" t="inlineStr">
-        <is>
-          <t>http://www.wikidata.org/entity/Q4191</t>
-        </is>
-      </c>
-      <c r="E972" t="inlineStr">
-        <is>
-          <t>http://data.performing-arts.ch/p/be455311-634d-459e-aebf-842898122418</t>
-        </is>
-      </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
@@ -13058,6 +13023,16 @@
           <t>PER</t>
         </is>
       </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>http://www.wikidata.org/entity/Q94743727</t>
+        </is>
+      </c>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>http://data.performing-arts.ch/a/48f38825-dfb7-4c36-9c4f-a541abd2b860</t>
+        </is>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" t="inlineStr">
@@ -13070,16 +13045,6 @@
           <t>PER</t>
         </is>
       </c>
-      <c r="D1013" t="inlineStr">
-        <is>
-          <t>http://www.wikidata.org/entity/Q240736</t>
-        </is>
-      </c>
-      <c r="F1013" t="inlineStr">
-        <is>
-          <t>https://upload.wikimedia.org/wikipedia/commons/4/4b/Ballet_Goes_To_the_Factory-_Dance_and_Entertainment_Organised_by_the_Council_For_the_Encouragement_of_Music_and_the_Arts%2C_England%2C_1943_D14039.jpg</t>
-        </is>
-      </c>
     </row>
     <row r="1014">
       <c r="A1014" t="inlineStr">
@@ -13301,29 +13266,9 @@
           <t>Mary Wigman</t>
         </is>
       </c>
-      <c r="B1031" t="inlineStr">
-        <is>
-          <t>Wigman</t>
-        </is>
-      </c>
       <c r="C1031" t="inlineStr">
         <is>
           <t>PER</t>
-        </is>
-      </c>
-      <c r="D1031" t="inlineStr">
-        <is>
-          <t>http://www.wikidata.org/entity/Q77127</t>
-        </is>
-      </c>
-      <c r="E1031" t="inlineStr">
-        <is>
-          <t>http://data.performing-arts.ch/a/83fa286b-fb96-4cce-b3f8-7dcba18eaea0</t>
-        </is>
-      </c>
-      <c r="F1031" t="inlineStr">
-        <is>
-          <t>https://upload.wikimedia.org/wikipedia/commons/3/3a/Mary_Wigman_by_Hugo_Erfurth_1926.jpg</t>
         </is>
       </c>
     </row>
@@ -14685,7 +14630,17 @@
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>MISC;PER</t>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="D1142" t="inlineStr">
+        <is>
+          <t>http://www.wikidata.org/entity/Q246321</t>
+        </is>
+      </c>
+      <c r="E1142" t="inlineStr">
+        <is>
+          <t>http://data.performing-arts.ch/a/ec58665f-e305-4e1d-8082-c16cafe3ed63</t>
         </is>
       </c>
     </row>
@@ -14781,7 +14736,17 @@
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>LOC</t>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>http://www.wikidata.org/entity/Q1725437</t>
+        </is>
+      </c>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>http://data.performing-arts.ch/a/1edcd880-36e3-423a-83b5-5fb5d49c1ace</t>
         </is>
       </c>
     </row>
@@ -15084,6 +15049,16 @@
           <t>PER</t>
         </is>
       </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>http://www.wikidata.org/entity/Q84217</t>
+        </is>
+      </c>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>http://data.performing-arts.ch/a/8258784d-3b9f-4ce5-a638-f08a634106ba</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
@@ -15360,11 +15335,6 @@
           <t>LOC</t>
         </is>
       </c>
-      <c r="D1198" t="inlineStr">
-        <is>
-          <t>http://www.wikidata.org/entity/Q670406</t>
-        </is>
-      </c>
     </row>
     <row r="1199">
       <c r="A1199" t="inlineStr">
@@ -15821,11 +15791,6 @@
           <t>ORG</t>
         </is>
       </c>
-      <c r="D1236" t="inlineStr">
-        <is>
-          <t>http://www.wikidata.org/entity/Q283339</t>
-        </is>
-      </c>
     </row>
     <row r="1237">
       <c r="A1237" t="inlineStr">
@@ -16148,6 +16113,16 @@
           <t>LOC</t>
         </is>
       </c>
+      <c r="D1262" t="inlineStr">
+        <is>
+          <t>http://www.wikidata.org/entity/Q656</t>
+        </is>
+      </c>
+      <c r="E1262" t="inlineStr">
+        <is>
+          <t>http://data.performing-arts.ch/p/e454fad4-9156-4934-8eb6-d10a35258ed2</t>
+        </is>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" t="inlineStr">
@@ -16316,6 +16291,21 @@
           <t>PER</t>
         </is>
       </c>
+      <c r="D1276" t="inlineStr">
+        <is>
+          <t>http://www.wikidata.org/entity/Q155538</t>
+        </is>
+      </c>
+      <c r="E1276" t="inlineStr">
+        <is>
+          <t>http://data.performing-arts.ch/a/1e971692-2469-43aa-a219-30771262d139</t>
+        </is>
+      </c>
+      <c r="F1276" t="inlineStr">
+        <is>
+          <t>https://upload.wikimedia.org/wikipedia/commons/0/02/Pina_Bausch.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="1277">
       <c r="A1277" t="inlineStr">
@@ -17729,6 +17719,16 @@
           <t>PER</t>
         </is>
       </c>
+      <c r="D1390" t="inlineStr">
+        <is>
+          <t>http://www.wikidata.org/entity/Q979906</t>
+        </is>
+      </c>
+      <c r="E1390" t="inlineStr">
+        <is>
+          <t>http://data.performing-arts.ch/a/51231fcb-6da9-4337-816b-3f4ca8ef09d2</t>
+        </is>
+      </c>
     </row>
     <row r="1391">
       <c r="A1391" t="inlineStr">
@@ -17844,9 +17844,29 @@
           <t>Rudolf von Laban</t>
         </is>
       </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>Also Laban;Laban</t>
+        </is>
+      </c>
       <c r="C1400" t="inlineStr">
         <is>
           <t>PER</t>
+        </is>
+      </c>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>http://www.wikidata.org/entity/Q213712</t>
+        </is>
+      </c>
+      <c r="E1400" t="inlineStr">
+        <is>
+          <t>http://data.performing-arts.ch/a/9dd84202-8274-4fa3-96a1-358cdea7ed5a</t>
+        </is>
+      </c>
+      <c r="F1400" t="inlineStr">
+        <is>
+          <t>https://media.performing-arts.ch/iiif/image/1027-5-10-89/full/max/0/color.jpg</t>
         </is>
       </c>
     </row>
@@ -18038,7 +18058,12 @@
       </c>
       <c r="C1416" t="inlineStr">
         <is>
-          <t>LOC;MISC;ORG</t>
+          <t>ORG</t>
+        </is>
+      </c>
+      <c r="D1416" t="inlineStr">
+        <is>
+          <t>http://www.wikidata.org/entity/Q50920401</t>
         </is>
       </c>
     </row>
@@ -18194,17 +18219,7 @@
       </c>
       <c r="C1429" t="inlineStr">
         <is>
-          <t>PER</t>
-        </is>
-      </c>
-      <c r="D1429" t="inlineStr">
-        <is>
-          <t>http://www.wikidata.org/entity/Q2581909</t>
-        </is>
-      </c>
-      <c r="E1429" t="inlineStr">
-        <is>
-          <t>http://data.performing-arts.ch/a/2bb410f5-6067-4f3d-be13-5f71d6d96a54</t>
+          <t>LOC;PER</t>
         </is>
       </c>
     </row>
